--- a/biology/Zoologie/Cephonodes_hylas/Cephonodes_hylas.xlsx
+++ b/biology/Zoologie/Cephonodes_hylas/Cephonodes_hylas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cephonodes hylas est une espèce de lépidoptère de la famille des Sphingidae, sous famille des Macroglossinae tribu des Dilophonotini et du genre Cephonodes. C'est l'espèce type pour le genre. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure varie de 45 à 73 mm.
 			Face dorsale du mâle(coll.MHNT)
@@ -546,7 +560,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve en Afrique, en Asie du Sud-Est et en Australie.
 </t>
@@ -577,7 +593,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La chenille se nourrie sur les plantes des genres Burchellia, Gardenia, Kraussia, Pavetta et Vangueria. Des parasitoïdes tels que Ooencyrtus papilionis et Blepharipa zebrine s'attaquent aux chenilles.
 			La chenille
@@ -609,14 +627,85 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Cephonodes hylas a été décrite par le naturaliste suédois Carl von Linné en 1771, sous le nom initial de Sphinx hylas[1]
-Synonymie
-Sphinx hylas  Linné, 1771 Protonyme
-Macroglossa confinis Boisduval, 1875 [2]
-Liste des sous-espèces
-Cephonodes hylas hylas (Linné, 1771)
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cephonodes hylas a été décrite par le naturaliste suédois Carl von Linné en 1771, sous le nom initial de Sphinx hylas
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cephonodes_hylas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cephonodes_hylas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sphinx hylas  Linné, 1771 Protonyme
+Macroglossa confinis Boisduval, 1875 </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cephonodes_hylas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cephonodes_hylas</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cephonodes hylas hylas (Linné, 1771)
 Cephonodes hylas australis Kitching &amp; Cadiou, 2000 (Australie)
 Cephonodes hylas melanogaster Cadiou, 1998 (Indonésie)
 Cephonodes hylas virescens (Wallengren, 1858) (Afrique)</t>
